--- a/Templates/PO/Priorização de Iniciativas e Demandas.xlsx
+++ b/Templates/PO/Priorização de Iniciativas e Demandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\marco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFA2F3-ECA5-4B4D-AED5-FD022BE7BBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E4B87-5A34-472F-8633-03B7A7A7706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="481" xr2:uid="{6E987199-0B68-4CB8-932D-EAF0BB0F2FDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="481" activeTab="1" xr2:uid="{6E987199-0B68-4CB8-932D-EAF0BB0F2FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Framworks" sheetId="3" r:id="rId1"/>
@@ -376,12 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,6 +414,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,43 +429,7 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -514,6 +478,42 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -521,14 +521,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -688,7 +688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B73EBFB7-AA15-4484-ACC5-909D70CD2529}" type="CELLRANGE">
+                    <a:fld id="{A0845BF9-36B0-4750-A642-768BC30D902C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -720,7 +720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF5795A1-961F-4545-987F-9F67979FFFFA}" type="CELLRANGE">
+                    <a:fld id="{34A188EA-9B07-4FB6-BCD4-EB1ECC4661C3}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -753,7 +753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD01C586-10FF-48C5-9074-29C8CD9699B5}" type="CELLRANGE">
+                    <a:fld id="{966C18EC-C236-4D69-92FC-9DDF9AB867C3}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -786,7 +786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D31F2CDC-9D8F-4652-BE27-BB24B439B109}" type="CELLRANGE">
+                    <a:fld id="{62BE15FA-1E49-47BA-8DD9-050A24AE234F}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -819,7 +819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68F4113C-04E1-4875-B71A-581B3AD13FBE}" type="CELLRANGE">
+                    <a:fld id="{0049B963-2B4B-464F-BA56-3192471F805A}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -852,7 +852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4308422B-F8E1-45B0-AADF-359C30B2294B}" type="CELLRANGE">
+                    <a:fld id="{3F3F7A67-C0CC-4D8B-85EC-76CB8422FCA9}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -885,7 +885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3772D835-722B-4430-BA86-02C16B9F2F69}" type="CELLRANGE">
+                    <a:fld id="{10179C1F-F0C4-4A39-B877-D1E076FAF640}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -918,7 +918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B4D36C0-346F-4EF1-A21E-7325F4B6A4C1}" type="CELLRANGE">
+                    <a:fld id="{715A00F1-331F-47C4-B5F1-CB2BE09F02DF}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -951,7 +951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00C21257-A978-4119-9E05-3366623A0CA2}" type="CELLRANGE">
+                    <a:fld id="{9BD2699D-20C0-4539-83E5-2335A29E064E}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2215,7 +2215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C09463DD-3030-42DE-A7FD-ECB924851056}" type="CELLRANGE">
+                    <a:fld id="{F873AC2D-A533-4153-9AD2-83AFAEAB951C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2247,7 +2247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16F2DFA5-E207-4991-97BE-5E9D5A11BEAB}" type="CELLRANGE">
+                    <a:fld id="{993C7541-F1D2-43FC-8B98-75FE1C56C058}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2280,7 +2280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F332E4D7-4154-4532-988E-3C9CE30C25DD}" type="CELLRANGE">
+                    <a:fld id="{1218B872-9E68-4FB6-8998-92F3884F0AEC}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2313,7 +2313,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AAE10C2-ADE6-4411-84A1-065CD6B3C242}" type="CELLRANGE">
+                    <a:fld id="{C4938F84-7BF0-4FCB-A8A7-D1D2A8FA62AD}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2346,7 +2346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12BFCA96-9B26-4EE5-B7D3-4918495E2E26}" type="CELLRANGE">
+                    <a:fld id="{41114A97-409B-4063-9F89-FA3D325A2010}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2379,7 +2379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C61DF461-0933-4ABF-9D70-B8C0037C3D36}" type="CELLRANGE">
+                    <a:fld id="{7F96EF08-DB5C-43E9-8BC7-94E755A09E58}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2412,7 +2412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98A8C20C-793A-4A60-B88F-B732703F485C}" type="CELLRANGE">
+                    <a:fld id="{CD71066B-4A58-4FC4-AB2D-D06313FBF03E}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2445,7 +2445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5064D06-7642-4B1E-8942-21E26C9D1DAC}" type="CELLRANGE">
+                    <a:fld id="{C59D2394-900F-4085-8C7D-C1F60D75486A}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2478,7 +2478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8614E9F2-781E-4409-A453-341B0D05ACCE}" type="CELLRANGE">
+                    <a:fld id="{1016B2D7-4E7B-4B0D-935C-404ACD0EA1B2}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3749,7 +3749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FDBEB07-82FF-4840-859B-C3166D6C967B}" type="CELLRANGE">
+                    <a:fld id="{57ABB205-C1A4-4FBB-8A24-C64CC1E58781}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3781,7 +3781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{615C3C86-9CE9-4B8D-9F33-4E6C3285C5BB}" type="CELLRANGE">
+                    <a:fld id="{4F7BF282-1B5B-4B9A-A8A1-6BC4086F8F95}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3814,7 +3814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{589558C1-9D3E-45AA-BD75-72F5855CCD49}" type="CELLRANGE">
+                    <a:fld id="{79D3E565-B398-4D50-852D-A1D9D962EF60}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3847,7 +3847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A879E872-E46D-4CA5-931C-A311AAD23D6B}" type="CELLRANGE">
+                    <a:fld id="{208AF740-301A-4F98-A601-BB85431F82D3}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3880,7 +3880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEA7D235-8CB3-41FF-931A-8709C50A4B9F}" type="CELLRANGE">
+                    <a:fld id="{446C7CF5-E6D5-46BC-9908-9558A58308C6}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3913,7 +3913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C9066AD-74DE-49FE-905F-6EBEF96DB623}" type="CELLRANGE">
+                    <a:fld id="{D3CE9F7F-0072-4C05-A7A9-037EF9B0A165}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3946,7 +3946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BCB5EC2-5855-47AB-B9DA-39D3FD131C00}" type="CELLRANGE">
+                    <a:fld id="{60AF1BEE-8044-43D9-B043-5D5F4DF76D44}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3979,7 +3979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B0537D2-9E70-461D-B0C9-ACFC268D84CB}" type="CELLRANGE">
+                    <a:fld id="{ED75DF23-9A36-4E7D-B560-026D543DFC7F}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -4012,7 +4012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB6538FA-0C32-4974-8B9B-52D1AA0A73A4}" type="CELLRANGE">
+                    <a:fld id="{F635851B-5FFF-4B62-9B8C-8C6800695809}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5276,7 +5276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BADAD82-D217-4BDD-A568-9B1A3660815A}" type="CELLRANGE">
+                    <a:fld id="{B1B12849-C397-483B-A3C1-DB19C631490C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5308,7 +5308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01EE684A-65A5-47D5-BA11-F3E5036C3F4B}" type="CELLRANGE">
+                    <a:fld id="{B4EEAE78-58F5-44E6-A06A-D35F9F4C5CD8}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5341,7 +5341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F0A177A-8B29-4CE7-8C73-4B46161A505E}" type="CELLRANGE">
+                    <a:fld id="{60B0281A-909A-4F65-94E5-3E3A3E9D1C00}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5374,7 +5374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBB8F1CF-FB0B-459F-AE20-BE646A5D0E35}" type="CELLRANGE">
+                    <a:fld id="{BFA2B93C-EB2E-4F4F-A557-C30DFB2375BD}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5407,7 +5407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{660B8538-D6E6-4E09-8E13-F868F3F954C4}" type="CELLRANGE">
+                    <a:fld id="{0278B2E7-6DA9-4B23-B84A-9A6BA97CB0FF}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5440,7 +5440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C365AB6-7563-42BE-8231-6D9AA9AF5F6F}" type="CELLRANGE">
+                    <a:fld id="{8890932A-A5AA-459E-BE3B-773749153418}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5473,7 +5473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAD53B09-C889-4548-8DEF-0C59E93F24C3}" type="CELLRANGE">
+                    <a:fld id="{C08AE9D3-499F-422B-91AA-75DE72B26A9F}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5506,7 +5506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC5CF86D-7C1E-44CF-95FE-21495D70D15F}" type="CELLRANGE">
+                    <a:fld id="{C9D1807A-C9BA-4877-A781-7281267F9872}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -5539,7 +5539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4D6C860-C2FB-4E61-AB4C-CFCCFF12BF6C}" type="CELLRANGE">
+                    <a:fld id="{85EE3361-4A46-4ACF-A0C8-16BA629F2B4B}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -9051,16 +9051,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385760</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9089,16 +9089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9664,15 +9664,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDF405D3-28C9-470C-A17C-F7171C9211AA}" name="Tabela1" displayName="Tabela1" ref="B3:F37" totalsRowShown="0" headerRowDxfId="36" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDF405D3-28C9-470C-A17C-F7171C9211AA}" name="Tabela1" displayName="Tabela1" ref="B3:F37" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F582C810-EE74-490F-8134-8889BCA20AD3}" name="Épicos" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{C21A4FFA-3003-47D3-8B9C-689C3923D6BD}" name="Componentes (descrição)" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{C1F563B0-B848-44B4-AA1B-98BF6B061D61}" name="Negócio" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{E2154483-82D4-4E1C-B511-3198D31CC7DA}" name="Score" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{F582C810-EE74-490F-8134-8889BCA20AD3}" name="Épicos" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{C21A4FFA-3003-47D3-8B9C-689C3923D6BD}" name="Componentes (descrição)" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{C1F563B0-B848-44B4-AA1B-98BF6B061D61}" name="Negócio" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{E2154483-82D4-4E1C-B511-3198D31CC7DA}" name="Score" dataDxfId="31">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{FFCEF056-7351-4CC2-9B95-B06E5F3EF169}" name="Caminho Crítico" dataDxfId="31">
+    <tableColumn id="27" xr3:uid="{FFCEF056-7351-4CC2-9B95-B06E5F3EF169}" name="Caminho Crítico" dataDxfId="30">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9689,25 +9689,25 @@
     <tableColumn id="11" xr3:uid="{39B31A9E-3CE7-4DDD-A341-B47B6D4AC20D}" name="Componentes (descrição)" dataDxfId="28">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{89BD9691-2B2C-4B3E-8111-29F3E857EAF3}" name="Negócio" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{89BD9691-2B2C-4B3E-8111-29F3E857EAF3}" name="Negócio" dataDxfId="27">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BAFE2F80-A682-4740-89F2-50B206E65DCC}" name="Risco" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{BAFE2F80-A682-4740-89F2-50B206E65DCC}" name="Risco" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP(Tabela110[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],16,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8F07EC30-71F6-4319-9AC1-5756A166CE40}" name="Risk" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{8F07EC30-71F6-4319-9AC1-5756A166CE40}" name="Risk" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(E4,Dados!$B$3:$C$7,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{58135060-0618-4840-AF6E-496569F7AE2D}" name="Oportunidade" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5B6F8AED-0992-4210-BE38-9E07A84F7725}" name="O" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{58135060-0618-4840-AF6E-496569F7AE2D}" name="Oportunidade" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{5B6F8AED-0992-4210-BE38-9E07A84F7725}" name="O" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP(G4,Dados!$B$3:$C$7,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6AB391AA-1BEA-4013-9F2B-9F878D556FF5}" name="Esforço" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{AAB19B50-B4E2-457A-8806-E9B15EB20E22}" name="Eff" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{6AB391AA-1BEA-4013-9F2B-9F878D556FF5}" name="Esforço" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{AAB19B50-B4E2-457A-8806-E9B15EB20E22}" name="Eff" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(I4,Dados!$B$3:$C$7,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5E8BA241-B899-4A2C-8668-88E822F041B8}" name="Impacto" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{69BFED1B-7811-4CF5-9CE8-46E497DC3DFA}" name="Imp" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{5E8BA241-B899-4A2C-8668-88E822F041B8}" name="Impacto" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{69BFED1B-7811-4CF5-9CE8-46E497DC3DFA}" name="Imp" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(K4,Dados!$B$3:$C$7,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9716,43 +9716,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{854875C2-CB99-455C-B860-6425951AE24F}" name="Tabela8" displayName="Tabela8" ref="B3:R37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{854875C2-CB99-455C-B860-6425951AE24F}" name="Tabela8" displayName="Tabela8" ref="B3:R37" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A58F9F78-CAC7-4E20-AB1D-A7C9E790F041}" name="Épicos" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{A58F9F78-CAC7-4E20-AB1D-A7C9E790F041}" name="Épicos" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4F3B80E7-70DF-4976-B111-862529455378}" name="Componentes (descrição)" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{4F3B80E7-70DF-4976-B111-862529455378}" name="Componentes (descrição)" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3D6B9AD7-CD2F-44B5-B7D8-19D115E03C9E}" name="Negócio" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{3D6B9AD7-CD2F-44B5-B7D8-19D115E03C9E}" name="Negócio" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{3CFB0A82-F21B-4005-A711-57145BD6F076}" name="Caminho Crítico" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{CE08AECF-D83B-4F35-8234-EBC698314978}" name="Score Geral" dataDxfId="23">
+    <tableColumn id="18" xr3:uid="{3CFB0A82-F21B-4005-A711-57145BD6F076}" name="Caminho Crítico" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CE08AECF-D83B-4F35-8234-EBC698314978}" name="Score Geral" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(((H4*(SUM(J4,L4,N4))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2497D1C2-8214-4938-A266-322ABC6EE28D}" name="Valor para Cliente" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{D4879703-FC59-4383-B478-870EA448285E}" name="Cust Val" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{2497D1C2-8214-4938-A266-322ABC6EE28D}" name="Valor para Cliente" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D4879703-FC59-4383-B478-870EA448285E}" name="Cust Val" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(G4,Tabela6[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{01C758B8-E59C-493D-80A9-1A1A5BF102E9}" name="Business Goal1" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{B759CDC9-9361-473A-BF06-295A78FA9B2E}" name="BG1" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{01C758B8-E59C-493D-80A9-1A1A5BF102E9}" name="Business Goal1" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B759CDC9-9361-473A-BF06-295A78FA9B2E}" name="BG1" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(I4,Tabela6[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DBAF0608-4BAD-4FC3-83F9-42455387A173}" name="Business Goal2" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{4C961CCA-74FF-4FDE-9928-DF7CC434DDFE}" name="BG2" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{DBAF0608-4BAD-4FC3-83F9-42455387A173}" name="Business Goal2" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{4C961CCA-74FF-4FDE-9928-DF7CC434DDFE}" name="BG2" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(K4,Tabela6[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BD03781D-0140-49C8-B1BC-64AD7AC44A4E}" name="Business Goal3" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{F724FC9D-DA73-493C-BC4C-4B1A5470D84B}" name="BG3" dataDxfId="15">
+    <tableColumn id="12" xr3:uid="{BD03781D-0140-49C8-B1BC-64AD7AC44A4E}" name="Business Goal3" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F724FC9D-DA73-493C-BC4C-4B1A5470D84B}" name="BG3" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(M4,Tabela6[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9E406262-3E6F-4864-A94E-95F675E08D4F}" name="Prob. Entrega Valor" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{F07B9D0B-87AB-4053-BDE2-043E75273461}" name="Conf" dataDxfId="13">
+    <tableColumn id="14" xr3:uid="{9E406262-3E6F-4864-A94E-95F675E08D4F}" name="Prob. Entrega Valor" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{F07B9D0B-87AB-4053-BDE2-043E75273461}" name="Conf" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(O4,Tabela7[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1C591D71-0DE0-43FD-8A41-28885CC9528C}" name="Esforço" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{75110550-F6E4-49A8-A87D-DE196EBC88DE}" name="Eff" dataDxfId="12">
+    <tableColumn id="16" xr3:uid="{1C591D71-0DE0-43FD-8A41-28885CC9528C}" name="Esforço" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{75110550-F6E4-49A8-A87D-DE196EBC88DE}" name="Eff" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(Q4,Tabela5[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10112,7 +10112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D3BCE-DF08-4C97-B763-8D71AEEAF833}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -10125,541 +10125,541 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE988123-24F8-4BFD-A139-D9BF5AC963E8}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="28.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
-    <col min="13" max="13" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="9"/>
-    <col min="15" max="15" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="17.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="28.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE)="","",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE))</f>
         <v>1.5</v>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="12" t="str">
+      <c r="F5" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v>x</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F7" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="9" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>NA</v>
       </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="9" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>NA</v>
       </c>
-      <c r="F11" s="12" t="str">
+      <c r="F11" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="10" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v>x</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="str">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="18" t="str">
+      <c r="F13" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="str">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F14" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="str">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F15" s="18" t="str">
+      <c r="F15" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="str">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F16" s="18" t="str">
+      <c r="F16" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="str">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F17" s="18" t="str">
+      <c r="F17" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="str">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F18" s="18" t="str">
+      <c r="F18" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="str">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F19" s="18" t="str">
+      <c r="F19" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="str">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F20" s="18" t="str">
+      <c r="F20" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="str">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F21" s="18" t="str">
+      <c r="F21" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="str">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F22" s="18" t="str">
+      <c r="F22" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="str">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F23" s="18" t="str">
+      <c r="F23" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="str">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F24" s="18" t="str">
+      <c r="F24" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="str">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F25" s="18" t="str">
+      <c r="F25" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="str">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F26" s="18" t="str">
+      <c r="F26" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="str">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F27" s="18" t="str">
+      <c r="F27" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="str">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F28" s="18" t="str">
+      <c r="F28" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="str">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F29" s="18" t="str">
+      <c r="F29" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="str">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F30" s="18" t="str">
+      <c r="F30" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17" t="str">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F31" s="18" t="str">
+      <c r="F31" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="str">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F32" s="18" t="str">
+      <c r="F32" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="str">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F33" s="18" t="str">
+      <c r="F33" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17" t="str">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F34" s="18" t="str">
+      <c r="F34" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="str">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F35" s="18" t="str">
+      <c r="F35" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="str">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F36" s="18" t="str">
+      <c r="F36" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="str">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15" t="str">
         <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F37" s="18" t="str">
+      <c r="F37" s="16" t="str">
         <f>IFERROR(IF(VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)=""," ",VLOOKUP(Tabela1[[#This Row],[Épicos]],Tabela8[[Épicos]:[Esforço]],4,FALSE)),"")</f>
         <v/>
       </c>
@@ -10699,7 +10699,13 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="0.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="0.140625" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -10709,48 +10715,48 @@
     <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
@@ -10761,15 +10767,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 1</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Aquisição</v>
       </c>
@@ -10803,15 +10809,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 2</v>
       </c>
-      <c r="C5" s="19" t="str">
+      <c r="C5" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Eficiência Operacional</v>
       </c>
@@ -10845,15 +10851,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 3</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Receita</v>
       </c>
@@ -10887,15 +10893,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 4</v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Performance</v>
       </c>
@@ -10929,15 +10935,15 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 5</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Performance</v>
       </c>
@@ -10971,15 +10977,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 6</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Otimização de Processo</v>
       </c>
@@ -11013,977 +11019,977 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 7</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Compliance</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <f>VLOOKUP(E10,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f>VLOOKUP(G10,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f>VLOOKUP(I10,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <f>VLOOKUP(K10,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 8</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Retenção</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <f>VLOOKUP(E11,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <f>VLOOKUP(G11,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f>VLOOKUP(I11,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <f>VLOOKUP(K11,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 9</v>
       </c>
-      <c r="C12" s="19" t="str">
+      <c r="C12" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Eficiência Operacional</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <f>VLOOKUP(E12,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <f>VLOOKUP(G12,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f>VLOOKUP(I12,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <f>VLOOKUP(K12,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C13" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D13" s="19" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="20" t="e">
+      <c r="F13" s="18" t="e">
         <f>VLOOKUP(E13,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="20" t="e">
+      <c r="H13" s="18" t="e">
         <f>VLOOKUP(G13,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="20" t="e">
+      <c r="J13" s="18" t="e">
         <f>VLOOKUP(I13,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="8" t="e">
+      <c r="L13" s="6" t="e">
         <f>VLOOKUP(K13,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C14" s="19" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="20" t="e">
+      <c r="F14" s="18" t="e">
         <f>VLOOKUP(E14,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="20" t="e">
+      <c r="H14" s="18" t="e">
         <f>VLOOKUP(G14,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="20" t="e">
+      <c r="J14" s="18" t="e">
         <f>VLOOKUP(I14,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="8" t="e">
+      <c r="L14" s="6" t="e">
         <f>VLOOKUP(K14,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="20" t="e">
+      <c r="F15" s="18" t="e">
         <f>VLOOKUP(E15,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="20" t="e">
+      <c r="H15" s="18" t="e">
         <f>VLOOKUP(G15,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="20" t="e">
+      <c r="J15" s="18" t="e">
         <f>VLOOKUP(I15,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="8" t="e">
+      <c r="L15" s="6" t="e">
         <f>VLOOKUP(K15,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C16" s="19" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D16" s="19" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="20" t="e">
+      <c r="F16" s="18" t="e">
         <f>VLOOKUP(E16,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="20" t="e">
+      <c r="H16" s="18" t="e">
         <f>VLOOKUP(G16,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="20" t="e">
+      <c r="J16" s="18" t="e">
         <f>VLOOKUP(I16,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="8" t="e">
+      <c r="L16" s="6" t="e">
         <f>VLOOKUP(K16,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C17" s="19" t="str">
+      <c r="C17" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D17" s="19" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="20" t="e">
+      <c r="F17" s="18" t="e">
         <f>VLOOKUP(E17,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="20" t="e">
+      <c r="H17" s="18" t="e">
         <f>VLOOKUP(G17,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="20" t="e">
+      <c r="J17" s="18" t="e">
         <f>VLOOKUP(I17,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="8" t="e">
+      <c r="L17" s="6" t="e">
         <f>VLOOKUP(K17,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C18" s="19" t="str">
+      <c r="C18" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D18" s="19" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="20" t="e">
+      <c r="F18" s="18" t="e">
         <f>VLOOKUP(E18,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="20" t="e">
+      <c r="H18" s="18" t="e">
         <f>VLOOKUP(G18,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="20" t="e">
+      <c r="J18" s="18" t="e">
         <f>VLOOKUP(I18,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="8" t="e">
+      <c r="L18" s="6" t="e">
         <f>VLOOKUP(K18,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C19" s="19" t="str">
+      <c r="C19" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D19" s="19" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="20" t="e">
+      <c r="F19" s="18" t="e">
         <f>VLOOKUP(E19,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="20" t="e">
+      <c r="H19" s="18" t="e">
         <f>VLOOKUP(G19,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="20" t="e">
+      <c r="J19" s="18" t="e">
         <f>VLOOKUP(I19,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="8" t="e">
+      <c r="L19" s="6" t="e">
         <f>VLOOKUP(K19,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C20" s="19" t="str">
+      <c r="C20" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D20" s="19" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="20" t="e">
+      <c r="F20" s="18" t="e">
         <f>VLOOKUP(E20,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="20" t="e">
+      <c r="H20" s="18" t="e">
         <f>VLOOKUP(G20,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="20" t="e">
+      <c r="J20" s="18" t="e">
         <f>VLOOKUP(I20,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="8" t="e">
+      <c r="L20" s="6" t="e">
         <f>VLOOKUP(K20,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C21" s="19" t="str">
+      <c r="C21" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D21" s="19" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="20" t="e">
+      <c r="F21" s="18" t="e">
         <f>VLOOKUP(E21,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="20" t="e">
+      <c r="H21" s="18" t="e">
         <f>VLOOKUP(G21,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="20" t="e">
+      <c r="J21" s="18" t="e">
         <f>VLOOKUP(I21,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="8" t="e">
+      <c r="L21" s="6" t="e">
         <f>VLOOKUP(K21,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C22" s="19" t="str">
+      <c r="C22" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D22" s="19" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="20" t="e">
+      <c r="F22" s="18" t="e">
         <f>VLOOKUP(E22,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="20" t="e">
+      <c r="H22" s="18" t="e">
         <f>VLOOKUP(G22,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="20" t="e">
+      <c r="J22" s="18" t="e">
         <f>VLOOKUP(I22,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="8" t="e">
+      <c r="L22" s="6" t="e">
         <f>VLOOKUP(K22,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C23" s="19" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D23" s="19" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="20" t="e">
+      <c r="F23" s="18" t="e">
         <f>VLOOKUP(E23,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="20" t="e">
+      <c r="H23" s="18" t="e">
         <f>VLOOKUP(G23,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="20" t="e">
+      <c r="J23" s="18" t="e">
         <f>VLOOKUP(I23,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="8" t="e">
+      <c r="L23" s="6" t="e">
         <f>VLOOKUP(K23,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C24" s="19" t="str">
+      <c r="C24" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D24" s="19" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="20" t="e">
+      <c r="F24" s="18" t="e">
         <f>VLOOKUP(E24,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="20" t="e">
+      <c r="H24" s="18" t="e">
         <f>VLOOKUP(G24,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="20" t="e">
+      <c r="J24" s="18" t="e">
         <f>VLOOKUP(I24,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="8" t="e">
+      <c r="L24" s="6" t="e">
         <f>VLOOKUP(K24,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="str">
+      <c r="B25" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D25" s="19" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="20" t="e">
+      <c r="F25" s="18" t="e">
         <f>VLOOKUP(E25,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="20" t="e">
+      <c r="H25" s="18" t="e">
         <f>VLOOKUP(G25,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="20" t="e">
+      <c r="J25" s="18" t="e">
         <f>VLOOKUP(I25,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="8" t="e">
+      <c r="L25" s="6" t="e">
         <f>VLOOKUP(K25,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C26" s="19" t="str">
+      <c r="C26" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D26" s="19" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="20" t="e">
+      <c r="F26" s="18" t="e">
         <f>VLOOKUP(E26,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="20" t="e">
+      <c r="H26" s="18" t="e">
         <f>VLOOKUP(G26,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="20" t="e">
+      <c r="J26" s="18" t="e">
         <f>VLOOKUP(I26,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="8" t="e">
+      <c r="L26" s="6" t="e">
         <f>VLOOKUP(K26,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="str">
+      <c r="B27" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C27" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D27" s="19" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="20" t="e">
+      <c r="F27" s="18" t="e">
         <f>VLOOKUP(E27,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="20" t="e">
+      <c r="H27" s="18" t="e">
         <f>VLOOKUP(G27,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="20" t="e">
+      <c r="J27" s="18" t="e">
         <f>VLOOKUP(I27,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="8" t="e">
+      <c r="L27" s="6" t="e">
         <f>VLOOKUP(K27,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C28" s="19" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D28" s="19" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="20" t="e">
+      <c r="F28" s="18" t="e">
         <f>VLOOKUP(E28,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="20" t="e">
+      <c r="H28" s="18" t="e">
         <f>VLOOKUP(G28,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="20" t="e">
+      <c r="J28" s="18" t="e">
         <f>VLOOKUP(I28,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="8" t="e">
+      <c r="L28" s="6" t="e">
         <f>VLOOKUP(K28,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="str">
+      <c r="B29" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D29" s="19" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="20" t="e">
+      <c r="F29" s="18" t="e">
         <f>VLOOKUP(E29,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="20" t="e">
+      <c r="H29" s="18" t="e">
         <f>VLOOKUP(G29,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="20" t="e">
+      <c r="J29" s="18" t="e">
         <f>VLOOKUP(I29,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="8" t="e">
+      <c r="L29" s="6" t="e">
         <f>VLOOKUP(K29,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C30" s="19" t="str">
+      <c r="C30" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D30" s="19" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="20" t="e">
+      <c r="F30" s="18" t="e">
         <f>VLOOKUP(E30,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="20" t="e">
+      <c r="H30" s="18" t="e">
         <f>VLOOKUP(G30,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="20" t="e">
+      <c r="J30" s="18" t="e">
         <f>VLOOKUP(I30,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="8" t="e">
+      <c r="L30" s="6" t="e">
         <f>VLOOKUP(K30,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="str">
+      <c r="B31" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C31" s="19" t="str">
+      <c r="C31" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D31" s="19" t="str">
+      <c r="D31" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="20" t="e">
+      <c r="F31" s="18" t="e">
         <f>VLOOKUP(E31,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="20" t="e">
+      <c r="H31" s="18" t="e">
         <f>VLOOKUP(G31,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="20" t="e">
+      <c r="J31" s="18" t="e">
         <f>VLOOKUP(I31,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="8" t="e">
+      <c r="L31" s="6" t="e">
         <f>VLOOKUP(K31,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="str">
+      <c r="B32" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C32" s="19" t="str">
+      <c r="C32" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D32" s="19" t="str">
+      <c r="D32" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="20" t="e">
+      <c r="F32" s="18" t="e">
         <f>VLOOKUP(E32,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="20" t="e">
+      <c r="H32" s="18" t="e">
         <f>VLOOKUP(G32,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="20" t="e">
+      <c r="J32" s="18" t="e">
         <f>VLOOKUP(I32,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="8" t="e">
+      <c r="L32" s="6" t="e">
         <f>VLOOKUP(K32,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="str">
+      <c r="B33" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C33" s="19" t="str">
+      <c r="C33" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D33" s="19" t="str">
+      <c r="D33" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="20" t="e">
+      <c r="F33" s="18" t="e">
         <f>VLOOKUP(E33,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="20" t="e">
+      <c r="H33" s="18" t="e">
         <f>VLOOKUP(G33,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="20" t="e">
+      <c r="J33" s="18" t="e">
         <f>VLOOKUP(I33,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="8" t="e">
+      <c r="L33" s="6" t="e">
         <f>VLOOKUP(K33,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="str">
+      <c r="B34" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C34" s="19" t="str">
+      <c r="C34" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D34" s="19" t="str">
+      <c r="D34" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="20" t="e">
+      <c r="F34" s="18" t="e">
         <f>VLOOKUP(E34,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="20" t="e">
+      <c r="H34" s="18" t="e">
         <f>VLOOKUP(G34,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="20" t="e">
+      <c r="J34" s="18" t="e">
         <f>VLOOKUP(I34,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="8" t="e">
+      <c r="L34" s="6" t="e">
         <f>VLOOKUP(K34,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="str">
+      <c r="B35" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C35" s="19" t="str">
+      <c r="C35" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D35" s="19" t="str">
+      <c r="D35" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="20" t="e">
+      <c r="F35" s="18" t="e">
         <f>VLOOKUP(E35,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="20" t="e">
+      <c r="H35" s="18" t="e">
         <f>VLOOKUP(G35,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="20" t="e">
+      <c r="J35" s="18" t="e">
         <f>VLOOKUP(I35,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="8" t="e">
+      <c r="L35" s="6" t="e">
         <f>VLOOKUP(K35,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="str">
+      <c r="B36" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C36" s="19" t="str">
+      <c r="C36" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D36" s="19" t="str">
+      <c r="D36" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="20" t="e">
+      <c r="F36" s="18" t="e">
         <f>VLOOKUP(E36,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="20" t="e">
+      <c r="H36" s="18" t="e">
         <f>VLOOKUP(G36,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="20" t="e">
+      <c r="J36" s="18" t="e">
         <f>VLOOKUP(I36,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="8" t="e">
+      <c r="L36" s="6" t="e">
         <f>VLOOKUP(K36,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="str">
+      <c r="B37" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C37" s="19" t="str">
+      <c r="C37" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D37" s="19" t="str">
+      <c r="D37" s="17" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="20" t="e">
+      <c r="F37" s="18" t="e">
         <f>VLOOKUP(E37,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="20" t="e">
+      <c r="H37" s="18" t="e">
         <f>VLOOKUP(G37,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="20" t="e">
+      <c r="J37" s="18" t="e">
         <f>VLOOKUP(I37,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="8" t="e">
+      <c r="L37" s="6" t="e">
         <f>VLOOKUP(K37,Dados!$B$3:$C$7,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -12019,1702 +12025,1702 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.140625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="0.140625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="1.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="1.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="2:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="10"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 1</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Aquisição</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
         <f>IFERROR(((H4*(SUM(J4,L4,N4))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>1.5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f>VLOOKUP(G4,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <f>VLOOKUP(I4,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <f>VLOOKUP(K4,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="8">
         <f>VLOOKUP(M4,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <f>VLOOKUP(O4,Tabela7[],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <f>VLOOKUP(Q4,Tabela5[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 2</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Eficiência Operacional</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
         <f>IFERROR(((H5*(SUM(J5,L5,N5))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>0.5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>VLOOKUP(G5,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <f>VLOOKUP(I5,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <f>VLOOKUP(K5,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="8">
         <f>VLOOKUP(M5,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <f>VLOOKUP(O5,Tabela7[],2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <f>VLOOKUP(Q5,Tabela5[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 3</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Receita</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f>IFERROR(((H6*(SUM(J6,L6,N6))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>0</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f>VLOOKUP(G6,Tabela6[],2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <f>VLOOKUP(I6,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <f>VLOOKUP(K6,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <f>VLOOKUP(M6,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <f>VLOOKUP(O6,Tabela7[],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="7">
         <f>VLOOKUP(Q6,Tabela5[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 4</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Performance</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
         <f>IFERROR(((H7*(SUM(J7,L7,N7))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>9</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f>VLOOKUP(G7,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <f>VLOOKUP(I7,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f>VLOOKUP(K7,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="8">
         <f>VLOOKUP(M7,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="8">
         <f>VLOOKUP(O7,Tabela7[],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <f>VLOOKUP(Q7,Tabela5[],2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 5</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Performance</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
         <f>IFERROR(((H8*(SUM(J8,L8,N8))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>VLOOKUP(G8,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <f>VLOOKUP(I8,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <f>VLOOKUP(K8,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="8">
         <f>VLOOKUP(M8,Tabela6[],2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="8">
         <f>VLOOKUP(O8,Tabela7[],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="7">
         <f>VLOOKUP(Q8,Tabela5[],2,FALSE)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 6</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Otimização de Processo</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
         <f>IFERROR(((H9*(SUM(J9,L9,N9))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f>VLOOKUP(G9,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <f>VLOOKUP(I9,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <f>VLOOKUP(K9,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="8">
         <f>VLOOKUP(M9,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="8">
         <f>VLOOKUP(O9,Tabela7[],2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="7">
         <f>VLOOKUP(Q9,Tabela5[],2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 7</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Compliance</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="str">
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="str">
         <f>IFERROR(((H10*(SUM(J10,L10,N10))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H10" s="10" t="e">
+      <c r="H10" s="8" t="e">
         <f>VLOOKUP(G10,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="10" t="e">
+      <c r="J10" s="8" t="e">
         <f>VLOOKUP(I10,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="10" t="e">
+      <c r="L10" s="8" t="e">
         <f>VLOOKUP(K10,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="10" t="e">
+      <c r="N10" s="8" t="e">
         <f>VLOOKUP(M10,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="10" t="e">
+      <c r="P10" s="8" t="e">
         <f>VLOOKUP(O10,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="9" t="e">
+      <c r="R10" s="7" t="e">
         <f>VLOOKUP(Q10,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 8</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Retenção</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="str">
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="str">
         <f>IFERROR(((H11*(SUM(J11,L11,N11))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H11" s="10" t="e">
+      <c r="H11" s="8" t="e">
         <f>VLOOKUP(G11,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="10" t="e">
+      <c r="J11" s="8" t="e">
         <f>VLOOKUP(I11,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="10" t="e">
+      <c r="L11" s="8" t="e">
         <f>VLOOKUP(K11,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="10" t="e">
+      <c r="N11" s="8" t="e">
         <f>VLOOKUP(M11,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="10" t="e">
+      <c r="P11" s="8" t="e">
         <f>VLOOKUP(O11,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="9" t="e">
+      <c r="R11" s="7" t="e">
         <f>VLOOKUP(Q11,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v>Iniciativa 9</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v>teste teste</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v>Eficiência Operacional</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>IFERROR(((H12*(SUM(J12,L12,N12))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>0.75</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f>VLOOKUP(G12,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <f>VLOOKUP(I12,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <f>VLOOKUP(K12,Tabela6[],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="8">
         <f>VLOOKUP(M12,Tabela6[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="8">
         <f>VLOOKUP(O12,Tabela7[],2,FALSE)</f>
         <v>0.75</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <f>VLOOKUP(Q12,Tabela5[],2,FALSE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="str">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="str">
         <f>IFERROR(((H13*(SUM(J13,L13,N13))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H13" s="10" t="e">
+      <c r="H13" s="8" t="e">
         <f>VLOOKUP(G13,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="10" t="e">
+      <c r="J13" s="8" t="e">
         <f>VLOOKUP(I13,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="10" t="e">
+      <c r="L13" s="8" t="e">
         <f>VLOOKUP(K13,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="10" t="e">
+      <c r="N13" s="8" t="e">
         <f>VLOOKUP(M13,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="10" t="e">
+      <c r="P13" s="8" t="e">
         <f>VLOOKUP(O13,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="9" t="e">
+      <c r="R13" s="7" t="e">
         <f>VLOOKUP(Q13,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11" t="str">
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="str">
         <f>IFERROR(((H14*(SUM(J14,L14,N14))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H14" s="10" t="e">
+      <c r="H14" s="8" t="e">
         <f>VLOOKUP(G14,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="10" t="e">
+      <c r="J14" s="8" t="e">
         <f>VLOOKUP(I14,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="10" t="e">
+      <c r="L14" s="8" t="e">
         <f>VLOOKUP(K14,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="10" t="e">
+      <c r="N14" s="8" t="e">
         <f>VLOOKUP(M14,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="10" t="e">
+      <c r="P14" s="8" t="e">
         <f>VLOOKUP(O14,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="9" t="e">
+      <c r="R14" s="7" t="e">
         <f>VLOOKUP(Q14,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11" t="str">
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="str">
         <f>IFERROR(((H15*(SUM(J15,L15,N15))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H15" s="10" t="e">
+      <c r="H15" s="8" t="e">
         <f>VLOOKUP(G15,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="10" t="e">
+      <c r="J15" s="8" t="e">
         <f>VLOOKUP(I15,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="10" t="e">
+      <c r="L15" s="8" t="e">
         <f>VLOOKUP(K15,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="10" t="e">
+      <c r="N15" s="8" t="e">
         <f>VLOOKUP(M15,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="10" t="e">
+      <c r="P15" s="8" t="e">
         <f>VLOOKUP(O15,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="9" t="e">
+      <c r="R15" s="7" t="e">
         <f>VLOOKUP(Q15,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="str">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="str">
         <f>IFERROR(((H16*(SUM(J16,L16,N16))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H16" s="10" t="e">
+      <c r="H16" s="8" t="e">
         <f>VLOOKUP(G16,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="10" t="e">
+      <c r="J16" s="8" t="e">
         <f>VLOOKUP(I16,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="10" t="e">
+      <c r="L16" s="8" t="e">
         <f>VLOOKUP(K16,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="10" t="e">
+      <c r="N16" s="8" t="e">
         <f>VLOOKUP(M16,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="10" t="e">
+      <c r="P16" s="8" t="e">
         <f>VLOOKUP(O16,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="9" t="e">
+      <c r="R16" s="7" t="e">
         <f>VLOOKUP(Q16,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="str">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="str">
         <f>IFERROR(((H17*(SUM(J17,L17,N17))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H17" s="10" t="e">
+      <c r="H17" s="8" t="e">
         <f>VLOOKUP(G17,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="10" t="e">
+      <c r="J17" s="8" t="e">
         <f>VLOOKUP(I17,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="10" t="e">
+      <c r="L17" s="8" t="e">
         <f>VLOOKUP(K17,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="10" t="e">
+      <c r="N17" s="8" t="e">
         <f>VLOOKUP(M17,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="10" t="e">
+      <c r="P17" s="8" t="e">
         <f>VLOOKUP(O17,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="9" t="e">
+      <c r="R17" s="7" t="e">
         <f>VLOOKUP(Q17,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="str">
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="str">
         <f>IFERROR(((H18*(SUM(J18,L18,N18))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H18" s="10" t="e">
+      <c r="H18" s="8" t="e">
         <f>VLOOKUP(G18,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="10" t="e">
+      <c r="J18" s="8" t="e">
         <f>VLOOKUP(I18,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="10" t="e">
+      <c r="L18" s="8" t="e">
         <f>VLOOKUP(K18,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="10" t="e">
+      <c r="N18" s="8" t="e">
         <f>VLOOKUP(M18,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="10" t="e">
+      <c r="P18" s="8" t="e">
         <f>VLOOKUP(O18,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="9" t="e">
+      <c r="R18" s="7" t="e">
         <f>VLOOKUP(Q18,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="str">
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="str">
         <f>IFERROR(((H19*(SUM(J19,L19,N19))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H19" s="10" t="e">
+      <c r="H19" s="8" t="e">
         <f>VLOOKUP(G19,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="10" t="e">
+      <c r="J19" s="8" t="e">
         <f>VLOOKUP(I19,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="10" t="e">
+      <c r="L19" s="8" t="e">
         <f>VLOOKUP(K19,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="10" t="e">
+      <c r="N19" s="8" t="e">
         <f>VLOOKUP(M19,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="10" t="e">
+      <c r="P19" s="8" t="e">
         <f>VLOOKUP(O19,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="9" t="e">
+      <c r="R19" s="7" t="e">
         <f>VLOOKUP(Q19,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="str">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="str">
         <f>IFERROR(((H20*(SUM(J20,L20,N20))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H20" s="10" t="e">
+      <c r="H20" s="8" t="e">
         <f>VLOOKUP(G20,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="10" t="e">
+      <c r="J20" s="8" t="e">
         <f>VLOOKUP(I20,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="10" t="e">
+      <c r="L20" s="8" t="e">
         <f>VLOOKUP(K20,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="10" t="e">
+      <c r="N20" s="8" t="e">
         <f>VLOOKUP(M20,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="10" t="e">
+      <c r="P20" s="8" t="e">
         <f>VLOOKUP(O20,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="9" t="e">
+      <c r="R20" s="7" t="e">
         <f>VLOOKUP(Q20,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="str">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="str">
         <f>IFERROR(((H21*(SUM(J21,L21,N21))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H21" s="10" t="e">
+      <c r="H21" s="8" t="e">
         <f>VLOOKUP(G21,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="10" t="e">
+      <c r="J21" s="8" t="e">
         <f>VLOOKUP(I21,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="10" t="e">
+      <c r="L21" s="8" t="e">
         <f>VLOOKUP(K21,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="10" t="e">
+      <c r="N21" s="8" t="e">
         <f>VLOOKUP(M21,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="10" t="e">
+      <c r="P21" s="8" t="e">
         <f>VLOOKUP(O21,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R21" s="9" t="e">
+      <c r="R21" s="7" t="e">
         <f>VLOOKUP(Q21,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="str">
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="str">
         <f>IFERROR(((H22*(SUM(J22,L22,N22))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H22" s="10" t="e">
+      <c r="H22" s="8" t="e">
         <f>VLOOKUP(G22,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="10" t="e">
+      <c r="J22" s="8" t="e">
         <f>VLOOKUP(I22,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="10" t="e">
+      <c r="L22" s="8" t="e">
         <f>VLOOKUP(K22,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="10" t="e">
+      <c r="N22" s="8" t="e">
         <f>VLOOKUP(M22,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="10" t="e">
+      <c r="P22" s="8" t="e">
         <f>VLOOKUP(O22,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R22" s="9" t="e">
+      <c r="R22" s="7" t="e">
         <f>VLOOKUP(Q22,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11" t="str">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="str">
         <f>IFERROR(((H23*(SUM(J23,L23,N23))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H23" s="10" t="e">
+      <c r="H23" s="8" t="e">
         <f>VLOOKUP(G23,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="10" t="e">
+      <c r="J23" s="8" t="e">
         <f>VLOOKUP(I23,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="10" t="e">
+      <c r="L23" s="8" t="e">
         <f>VLOOKUP(K23,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="10" t="e">
+      <c r="N23" s="8" t="e">
         <f>VLOOKUP(M23,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="10" t="e">
+      <c r="P23" s="8" t="e">
         <f>VLOOKUP(O23,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="9" t="e">
+      <c r="R23" s="7" t="e">
         <f>VLOOKUP(Q23,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11" t="str">
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="str">
         <f>IFERROR(((H24*(SUM(J24,L24,N24))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H24" s="10" t="e">
+      <c r="H24" s="8" t="e">
         <f>VLOOKUP(G24,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="10" t="e">
+      <c r="J24" s="8" t="e">
         <f>VLOOKUP(I24,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="10" t="e">
+      <c r="L24" s="8" t="e">
         <f>VLOOKUP(K24,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="10" t="e">
+      <c r="N24" s="8" t="e">
         <f>VLOOKUP(M24,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="10" t="e">
+      <c r="P24" s="8" t="e">
         <f>VLOOKUP(O24,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R24" s="9" t="e">
+      <c r="R24" s="7" t="e">
         <f>VLOOKUP(Q24,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11" t="str">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="str">
         <f>IFERROR(((H25*(SUM(J25,L25,N25))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H25" s="10" t="e">
+      <c r="H25" s="8" t="e">
         <f>VLOOKUP(G25,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="10" t="e">
+      <c r="J25" s="8" t="e">
         <f>VLOOKUP(I25,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="10" t="e">
+      <c r="L25" s="8" t="e">
         <f>VLOOKUP(K25,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="10" t="e">
+      <c r="N25" s="8" t="e">
         <f>VLOOKUP(M25,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="10" t="e">
+      <c r="P25" s="8" t="e">
         <f>VLOOKUP(O25,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R25" s="9" t="e">
+      <c r="R25" s="7" t="e">
         <f>VLOOKUP(Q25,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11" t="str">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="str">
         <f>IFERROR(((H26*(SUM(J26,L26,N26))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H26" s="10" t="e">
+      <c r="H26" s="8" t="e">
         <f>VLOOKUP(G26,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="10" t="e">
+      <c r="J26" s="8" t="e">
         <f>VLOOKUP(I26,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="10" t="e">
+      <c r="L26" s="8" t="e">
         <f>VLOOKUP(K26,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="10" t="e">
+      <c r="N26" s="8" t="e">
         <f>VLOOKUP(M26,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="10" t="e">
+      <c r="P26" s="8" t="e">
         <f>VLOOKUP(O26,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R26" s="9" t="e">
+      <c r="R26" s="7" t="e">
         <f>VLOOKUP(Q26,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11" t="str">
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="str">
         <f>IFERROR(((H27*(SUM(J27,L27,N27))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H27" s="10" t="e">
+      <c r="H27" s="8" t="e">
         <f>VLOOKUP(G27,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="10" t="e">
+      <c r="J27" s="8" t="e">
         <f>VLOOKUP(I27,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="10" t="e">
+      <c r="L27" s="8" t="e">
         <f>VLOOKUP(K27,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N27" s="10" t="e">
+      <c r="N27" s="8" t="e">
         <f>VLOOKUP(M27,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="10" t="e">
+      <c r="P27" s="8" t="e">
         <f>VLOOKUP(O27,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R27" s="9" t="e">
+      <c r="R27" s="7" t="e">
         <f>VLOOKUP(Q27,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11" t="str">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="str">
         <f>IFERROR(((H28*(SUM(J28,L28,N28))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H28" s="10" t="e">
+      <c r="H28" s="8" t="e">
         <f>VLOOKUP(G28,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="10" t="e">
+      <c r="J28" s="8" t="e">
         <f>VLOOKUP(I28,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="10" t="e">
+      <c r="L28" s="8" t="e">
         <f>VLOOKUP(K28,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="10" t="e">
+      <c r="N28" s="8" t="e">
         <f>VLOOKUP(M28,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="10" t="e">
+      <c r="P28" s="8" t="e">
         <f>VLOOKUP(O28,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R28" s="9" t="e">
+      <c r="R28" s="7" t="e">
         <f>VLOOKUP(Q28,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11" t="str">
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="str">
         <f>IFERROR(((H29*(SUM(J29,L29,N29))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H29" s="10" t="e">
+      <c r="H29" s="8" t="e">
         <f>VLOOKUP(G29,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="10" t="e">
+      <c r="J29" s="8" t="e">
         <f>VLOOKUP(I29,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="10" t="e">
+      <c r="L29" s="8" t="e">
         <f>VLOOKUP(K29,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N29" s="10" t="e">
+      <c r="N29" s="8" t="e">
         <f>VLOOKUP(M29,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="10" t="e">
+      <c r="P29" s="8" t="e">
         <f>VLOOKUP(O29,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R29" s="9" t="e">
+      <c r="R29" s="7" t="e">
         <f>VLOOKUP(Q29,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="str">
+      <c r="E30" s="8"/>
+      <c r="F30" s="9" t="str">
         <f>IFERROR(((H30*(SUM(J30,L30,N30))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H30" s="10" t="e">
+      <c r="H30" s="8" t="e">
         <f>VLOOKUP(G30,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="10" t="e">
+      <c r="J30" s="8" t="e">
         <f>VLOOKUP(I30,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" s="10" t="e">
+      <c r="L30" s="8" t="e">
         <f>VLOOKUP(K30,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="10" t="e">
+      <c r="N30" s="8" t="e">
         <f>VLOOKUP(M30,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="10" t="e">
+      <c r="P30" s="8" t="e">
         <f>VLOOKUP(O30,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R30" s="9" t="e">
+      <c r="R30" s="7" t="e">
         <f>VLOOKUP(Q30,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="str">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="str">
         <f>IFERROR(((H31*(SUM(J31,L31,N31))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H31" s="10" t="e">
+      <c r="H31" s="8" t="e">
         <f>VLOOKUP(G31,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="10" t="e">
+      <c r="J31" s="8" t="e">
         <f>VLOOKUP(I31,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L31" s="10" t="e">
+      <c r="L31" s="8" t="e">
         <f>VLOOKUP(K31,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N31" s="10" t="e">
+      <c r="N31" s="8" t="e">
         <f>VLOOKUP(M31,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="10" t="e">
+      <c r="P31" s="8" t="e">
         <f>VLOOKUP(O31,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R31" s="9" t="e">
+      <c r="R31" s="7" t="e">
         <f>VLOOKUP(Q31,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D32" s="16" t="str">
+      <c r="D32" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="str">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="str">
         <f>IFERROR(((H32*(SUM(J32,L32,N32))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H32" s="10" t="e">
+      <c r="H32" s="8" t="e">
         <f>VLOOKUP(G32,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="10" t="e">
+      <c r="J32" s="8" t="e">
         <f>VLOOKUP(I32,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L32" s="10" t="e">
+      <c r="L32" s="8" t="e">
         <f>VLOOKUP(K32,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N32" s="10" t="e">
+      <c r="N32" s="8" t="e">
         <f>VLOOKUP(M32,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="10" t="e">
+      <c r="P32" s="8" t="e">
         <f>VLOOKUP(O32,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R32" s="9" t="e">
+      <c r="R32" s="7" t="e">
         <f>VLOOKUP(Q32,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D33" s="16" t="str">
+      <c r="D33" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="str">
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="str">
         <f>IFERROR(((H33*(SUM(J33,L33,N33))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H33" s="10" t="e">
+      <c r="H33" s="8" t="e">
         <f>VLOOKUP(G33,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="10" t="e">
+      <c r="J33" s="8" t="e">
         <f>VLOOKUP(I33,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L33" s="10" t="e">
+      <c r="L33" s="8" t="e">
         <f>VLOOKUP(K33,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="10" t="e">
+      <c r="N33" s="8" t="e">
         <f>VLOOKUP(M33,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="10" t="e">
+      <c r="P33" s="8" t="e">
         <f>VLOOKUP(O33,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R33" s="9" t="e">
+      <c r="R33" s="7" t="e">
         <f>VLOOKUP(Q33,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D34" s="16" t="str">
+      <c r="D34" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11" t="str">
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="str">
         <f>IFERROR(((H34*(SUM(J34,L34,N34))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H34" s="10" t="e">
+      <c r="H34" s="8" t="e">
         <f>VLOOKUP(G34,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="10" t="e">
+      <c r="J34" s="8" t="e">
         <f>VLOOKUP(I34,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L34" s="10" t="e">
+      <c r="L34" s="8" t="e">
         <f>VLOOKUP(K34,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N34" s="10" t="e">
+      <c r="N34" s="8" t="e">
         <f>VLOOKUP(M34,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="10" t="e">
+      <c r="P34" s="8" t="e">
         <f>VLOOKUP(O34,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R34" s="9" t="e">
+      <c r="R34" s="7" t="e">
         <f>VLOOKUP(Q34,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D35" s="16" t="str">
+      <c r="D35" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11" t="str">
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="str">
         <f>IFERROR(((H35*(SUM(J35,L35,N35))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H35" s="10" t="e">
+      <c r="H35" s="8" t="e">
         <f>VLOOKUP(G35,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="10" t="e">
+      <c r="J35" s="8" t="e">
         <f>VLOOKUP(I35,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L35" s="10" t="e">
+      <c r="L35" s="8" t="e">
         <f>VLOOKUP(K35,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N35" s="10" t="e">
+      <c r="N35" s="8" t="e">
         <f>VLOOKUP(M35,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="10" t="e">
+      <c r="P35" s="8" t="e">
         <f>VLOOKUP(O35,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R35" s="9" t="e">
+      <c r="R35" s="7" t="e">
         <f>VLOOKUP(Q35,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C36" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D36" s="16" t="str">
+      <c r="D36" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="str">
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="str">
         <f>IFERROR(((H36*(SUM(J36,L36,N36))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H36" s="10" t="e">
+      <c r="H36" s="8" t="e">
         <f>VLOOKUP(G36,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="10" t="e">
+      <c r="J36" s="8" t="e">
         <f>VLOOKUP(I36,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L36" s="10" t="e">
+      <c r="L36" s="8" t="e">
         <f>VLOOKUP(K36,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N36" s="10" t="e">
+      <c r="N36" s="8" t="e">
         <f>VLOOKUP(M36,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="10" t="e">
+      <c r="P36" s="8" t="e">
         <f>VLOOKUP(O36,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R36" s="9" t="e">
+      <c r="R36" s="7" t="e">
         <f>VLOOKUP(Q36,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Épicos]]="","",Tabela1[[#This Row],[Épicos]])</f>
         <v/>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Componentes (descrição)]]="","",Tabela1[[#This Row],[Componentes (descrição)]])</f>
         <v/>
       </c>
-      <c r="D37" s="16" t="str">
+      <c r="D37" s="14" t="str">
         <f>IF(Tabela1[[#This Row],[Negócio]]="","",Tabela1[[#This Row],[Negócio]])</f>
         <v/>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11" t="str">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="str">
         <f>IFERROR(((H37*(SUM(J37,L37,N37))/Tabela8[[#This Row],[Eff]])*Tabela8[[#This Row],[Conf]]),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="H37" s="10" t="e">
+      <c r="H37" s="8" t="e">
         <f>VLOOKUP(G37,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="10" t="e">
+      <c r="J37" s="8" t="e">
         <f>VLOOKUP(I37,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L37" s="10" t="e">
+      <c r="L37" s="8" t="e">
         <f>VLOOKUP(K37,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N37" s="10" t="e">
+      <c r="N37" s="8" t="e">
         <f>VLOOKUP(M37,Tabela6[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="10" t="e">
+      <c r="P37" s="8" t="e">
         <f>VLOOKUP(O37,Tabela7[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R37" s="9" t="e">
+      <c r="R37" s="7" t="e">
         <f>VLOOKUP(Q37,Tabela5[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -13984,7 +13990,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:9" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -13995,7 +14001,7 @@
       </c>
     </row>
     <row r="3" spans="7:9" ht="131.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="7"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -14004,13 +14010,13 @@
       </c>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="6" spans="7:9" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -14021,7 +14027,7 @@
       </c>
     </row>
     <row r="7" spans="7:9" ht="131.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="7"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
@@ -14030,10 +14036,10 @@
       </c>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
